--- a/BD.xlsx
+++ b/BD.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Voos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Passageiros" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Voo1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Voo2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,13 +19,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <color rgb="FFCE9178"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +54,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,15 +356,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19.42578125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="20.7109375" customWidth="1" min="2" max="2"/>
+    <col width="19.5703125" customWidth="1" min="3" max="3"/>
+    <col width="21.7109375" customWidth="1" min="4" max="4"/>
+    <col width="19.42578125" bestFit="1" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -368,17 +381,22 @@
           <t>aeroportoPartida</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>horarioSaida</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>aeroportoDestino</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>tempoEstimado</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>horarioChegada</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>quantidadeAssentos</t>
         </is>
@@ -395,22 +413,56 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Recife</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Garanhuns</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>65</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -420,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -477,6 +529,31 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>maria@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>098955566500</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8756544544</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ana@gmail.com</t>
         </is>
       </c>
     </row>
@@ -494,6 +571,75 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>codVoo</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>codPassageiro</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>numeroAssento</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>classePassageiro</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>valorGasto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>economica</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -526,28 +672,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Economica</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Passageiros" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Voo1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Voo2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Voo3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -356,7 +357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -457,6 +458,36 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Garanhuns</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -675,4 +706,50 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>codVoo</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>codPassageiro</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>numeroAssento</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>classePassageiro</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>valorGasto</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/BD.xlsx
+++ b/BD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Voos" sheetId="1" state="visible" r:id="rId1"/>
@@ -359,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -447,7 +447,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -503,10 +503,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -585,6 +585,131 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>ana@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00055522200</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>87545454211</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dasd@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>João</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>55566988544</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>874545545544</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>asdasd@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>588545456564</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87784546465</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>saddas@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5154565456</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8756542123</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>asdas@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>André</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>154554546546565</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8778455456465</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>asdasd@gmail.com</t>
         </is>
       </c>
     </row>
@@ -601,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -642,15 +767,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>economica</t>
+          <t>Executiva</t>
         </is>
       </c>
       <c r="E2" t="n">

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Voo1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Voo2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Voo3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Voo4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Voo5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Voo6" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -357,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -491,6 +494,96 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Garanhuns</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rio</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Recife</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Garanhuns</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Recife</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Garanhuns</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -503,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
@@ -710,6 +803,31 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>asdasd@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marcio</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>554565</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4546556</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>asda@gmail.com</t>
         </is>
       </c>
     </row>
@@ -781,7 +899,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +908,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>codVoo</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>codPassageiro</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>numeroAssento</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>classePassageiro</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>valorGasto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Executiva</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>codVoo</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>codPassageiro</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>numeroAssento</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>classePassageiro</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>valorGasto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Executiva</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Executiva</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -835,7 +1120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -879,4 +1164,50 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>codVoo</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>codPassageiro</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>numeroAssento</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>classePassageiro</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>valorGasto</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>